--- a/biology/Botanique/Psychotria_camerunensis/Psychotria_camerunensis.xlsx
+++ b/biology/Botanique/Psychotria_camerunensis/Psychotria_camerunensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psychotria camerunensis E.M.A.Petit [2] est une espèce de plantes herbacées de la famille des Rubiaceae selon la classification phylogénétique[3]. C'est une espèce endémique du Cameroun. Elle se développe dans les forêts tropicales ou subtropicales humides de basses altitudes et dans les forêts tropicales ou subtropicales humides de montagne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psychotria camerunensis E.M.A.Petit  est une espèce de plantes herbacées de la famille des Rubiaceae selon la classification phylogénétique. C'est une espèce endémique du Cameroun. Elle se développe dans les forêts tropicales ou subtropicales humides de basses altitudes et dans les forêts tropicales ou subtropicales humides de montagne.
 Cette espèce est menacée à cause de la disparition de son habitat naturel.
 </t>
         </is>
